--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H2">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I2">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J2">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N2">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O2">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P2">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q2">
-        <v>24.10933899929138</v>
+        <v>24.428814276608</v>
       </c>
       <c r="R2">
-        <v>24.10933899929138</v>
+        <v>97.71525710643201</v>
       </c>
       <c r="S2">
-        <v>0.00859492300674594</v>
+        <v>0.007113730679455553</v>
       </c>
       <c r="T2">
-        <v>0.00859492300674594</v>
+        <v>0.003966096529482824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H3">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I3">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J3">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N3">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O3">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P3">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q3">
-        <v>12.28433711391963</v>
+        <v>13.55456813124267</v>
       </c>
       <c r="R3">
-        <v>12.28433711391963</v>
+        <v>81.32740878745599</v>
       </c>
       <c r="S3">
-        <v>0.004379337471100064</v>
+        <v>0.003947123510383498</v>
       </c>
       <c r="T3">
-        <v>0.004379337471100064</v>
+        <v>0.003300941565270962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H4">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I4">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J4">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N4">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O4">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P4">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q4">
-        <v>137.4763455794819</v>
+        <v>159.8958554693974</v>
       </c>
       <c r="R4">
-        <v>137.4763455794819</v>
+        <v>959.3751328163842</v>
       </c>
       <c r="S4">
-        <v>0.0490099958998948</v>
+        <v>0.04656206558742488</v>
       </c>
       <c r="T4">
-        <v>0.0490099958998948</v>
+        <v>0.03893940923259082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H5">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I5">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J5">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N5">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O5">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P5">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q5">
-        <v>117.5521093188143</v>
+        <v>124.388900686336</v>
       </c>
       <c r="R5">
-        <v>117.5521093188143</v>
+        <v>746.333404118016</v>
       </c>
       <c r="S5">
-        <v>0.04190705223836652</v>
+        <v>0.03622235320047652</v>
       </c>
       <c r="T5">
-        <v>0.04190705223836652</v>
+        <v>0.03029240685193597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H6">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I6">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J6">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N6">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O6">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P6">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q6">
-        <v>16.16951772822862</v>
+        <v>18.67745512772267</v>
       </c>
       <c r="R6">
-        <v>16.16951772822862</v>
+        <v>112.064730766336</v>
       </c>
       <c r="S6">
-        <v>0.005764395279954513</v>
+        <v>0.005438920778216502</v>
       </c>
       <c r="T6">
-        <v>0.005764395279954513</v>
+        <v>0.004548517324021207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H7">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I7">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J7">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N7">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O7">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P7">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q7">
-        <v>13.83444674080814</v>
+        <v>14.015948121088</v>
       </c>
       <c r="R7">
-        <v>13.83444674080814</v>
+        <v>56.06379248435201</v>
       </c>
       <c r="S7">
-        <v>0.004931947930288266</v>
+        <v>0.004081478495913535</v>
       </c>
       <c r="T7">
-        <v>0.004931947930288266</v>
+        <v>0.002275534234737202</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H8">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I8">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J8">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N8">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O8">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P8">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q8">
-        <v>62.30986677464033</v>
+        <v>65.93756598546132</v>
       </c>
       <c r="R8">
-        <v>62.30986677464033</v>
+        <v>395.6253959127679</v>
       </c>
       <c r="S8">
-        <v>0.02221332187930873</v>
+        <v>0.01920118106299392</v>
       </c>
       <c r="T8">
-        <v>0.02221332187930873</v>
+        <v>0.01605776371233242</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H9">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I9">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J9">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N9">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O9">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P9">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q9">
-        <v>31.74850247887756</v>
+        <v>36.58610771846043</v>
       </c>
       <c r="R9">
-        <v>31.74850247887756</v>
+        <v>329.2749694661439</v>
       </c>
       <c r="S9">
-        <v>0.01131826693355034</v>
+        <v>0.01065396437058737</v>
       </c>
       <c r="T9">
-        <v>0.01131826693355034</v>
+        <v>0.0133647124545024</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H10">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I10">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J10">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N10">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O10">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P10">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q10">
-        <v>355.3035103108262</v>
+        <v>431.5863799787796</v>
       </c>
       <c r="R10">
-        <v>355.3035103108262</v>
+        <v>3884.277419809016</v>
       </c>
       <c r="S10">
-        <v>0.1266648710376452</v>
+        <v>0.1256790132065513</v>
       </c>
       <c r="T10">
-        <v>0.1266648710376452</v>
+        <v>0.157656231487713</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H11">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I11">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J11">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N11">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O11">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P11">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q11">
-        <v>303.8099166032118</v>
+        <v>335.7470098218426</v>
       </c>
       <c r="R11">
-        <v>303.8099166032118</v>
+        <v>3021.723088396584</v>
       </c>
       <c r="S11">
-        <v>0.1083075252277659</v>
+        <v>0.09777035337290811</v>
       </c>
       <c r="T11">
-        <v>0.1083075252277659</v>
+        <v>0.1226466143449255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H12">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I12">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J12">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N12">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O12">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P12">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q12">
-        <v>41.78963577084063</v>
+        <v>50.41365970447377</v>
       </c>
       <c r="R12">
-        <v>41.78963577084063</v>
+        <v>453.722937340264</v>
       </c>
       <c r="S12">
-        <v>0.01489790748476713</v>
+        <v>0.01468058144953664</v>
       </c>
       <c r="T12">
-        <v>0.01489790748476713</v>
+        <v>0.01841584436678029</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H13">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I13">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J13">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N13">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O13">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P13">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q13">
-        <v>35.75471452560143</v>
+        <v>37.83145156447466</v>
       </c>
       <c r="R13">
-        <v>35.75471452560143</v>
+        <v>226.988709386848</v>
       </c>
       <c r="S13">
-        <v>0.01274647216519529</v>
+        <v>0.01101661155532386</v>
       </c>
       <c r="T13">
-        <v>0.01274647216519529</v>
+        <v>0.009213086668240516</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H14">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I14">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J14">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N14">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O14">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P14">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q14">
-        <v>3.875285722959612</v>
+        <v>8.169430186558667</v>
       </c>
       <c r="R14">
-        <v>3.875285722959612</v>
+        <v>49.016581119352</v>
       </c>
       <c r="S14">
-        <v>0.00138153030321398</v>
+        <v>0.002378958122721547</v>
       </c>
       <c r="T14">
-        <v>0.00138153030321398</v>
+        <v>0.001989499879766256</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H15">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I15">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J15">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N15">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O15">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P15">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q15">
-        <v>1.9745591629449</v>
+        <v>4.532888776479555</v>
       </c>
       <c r="R15">
-        <v>1.9745591629449</v>
+        <v>40.79599898831599</v>
       </c>
       <c r="S15">
-        <v>0.0007039257268013422</v>
+        <v>0.001319988337980019</v>
       </c>
       <c r="T15">
-        <v>0.0007039257268013422</v>
+        <v>0.001655840395815676</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H16">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I16">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J16">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N16">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O16">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P16">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q16">
-        <v>22.0976659411727</v>
+        <v>53.47201929600546</v>
       </c>
       <c r="R16">
-        <v>22.0976659411727</v>
+        <v>481.2481736640491</v>
       </c>
       <c r="S16">
-        <v>0.0078777662630549</v>
+        <v>0.01557118326953243</v>
       </c>
       <c r="T16">
-        <v>0.0078777662630549</v>
+        <v>0.01953304701751939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H17">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I17">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J17">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N17">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O17">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P17">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q17">
-        <v>18.89508505232674</v>
+        <v>41.59786179687234</v>
       </c>
       <c r="R17">
-        <v>18.89508505232674</v>
+        <v>374.380756171851</v>
       </c>
       <c r="S17">
-        <v>0.006736053661008198</v>
+        <v>0.01211339945989599</v>
       </c>
       <c r="T17">
-        <v>0.006736053661008198</v>
+        <v>0.01519547982298249</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H18">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I18">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J18">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N18">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O18">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P18">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q18">
-        <v>2.59905512968184</v>
+        <v>6.246073346041223</v>
       </c>
       <c r="R18">
-        <v>2.59905512968184</v>
+        <v>56.214660114371</v>
       </c>
       <c r="S18">
-        <v>0.0009265570794188957</v>
+        <v>0.001818871889758894</v>
       </c>
       <c r="T18">
-        <v>0.0009265570794188957</v>
+        <v>0.002281657695919706</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.3754881881135</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H19">
-        <v>2.3754881881135</v>
+        <v>15.021127</v>
       </c>
       <c r="I19">
-        <v>0.01841858423257366</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J19">
-        <v>0.01841858423257366</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N19">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O19">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P19">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q19">
-        <v>2.223720606412092</v>
+        <v>4.687182454995334</v>
       </c>
       <c r="R19">
-        <v>2.223720606412092</v>
+        <v>28.123094729972</v>
       </c>
       <c r="S19">
-        <v>0.0007927511990763449</v>
+        <v>0.001364919035887644</v>
       </c>
       <c r="T19">
-        <v>0.0007927511990763449</v>
+        <v>0.001141468709286308</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H20">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I20">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J20">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N20">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O20">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P20">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q20">
-        <v>19.88900535337563</v>
+        <v>20.430291354536</v>
       </c>
       <c r="R20">
-        <v>19.88900535337563</v>
+        <v>122.581748127216</v>
       </c>
       <c r="S20">
-        <v>0.007090383925417689</v>
+        <v>0.005949350989914624</v>
       </c>
       <c r="T20">
-        <v>0.007090383925417689</v>
+        <v>0.004975385218459271</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H21">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I21">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J21">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N21">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O21">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P21">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q21">
-        <v>10.13396703362957</v>
+        <v>11.33594831785867</v>
       </c>
       <c r="R21">
-        <v>10.13396703362957</v>
+        <v>102.023534860728</v>
       </c>
       <c r="S21">
-        <v>0.003612735563156988</v>
+        <v>0.003301055974980008</v>
       </c>
       <c r="T21">
-        <v>0.003612735563156988</v>
+        <v>0.004140962215306586</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H22">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I22">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J22">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N22">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O22">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P22">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q22">
-        <v>113.4111463310213</v>
+        <v>133.7240062752714</v>
       </c>
       <c r="R22">
-        <v>113.4111463310213</v>
+        <v>1203.516056477442</v>
       </c>
       <c r="S22">
-        <v>0.04043080861116</v>
+        <v>0.03894075886159596</v>
       </c>
       <c r="T22">
-        <v>0.04043080861116</v>
+        <v>0.04884867518255594</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H23">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I23">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J23">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N23">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O23">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P23">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q23">
-        <v>96.97464254873242</v>
+        <v>104.028851073862</v>
       </c>
       <c r="R23">
-        <v>96.97464254873242</v>
+        <v>936.2596596647581</v>
       </c>
       <c r="S23">
-        <v>0.03457123342691237</v>
+        <v>0.03029345677826326</v>
       </c>
       <c r="T23">
-        <v>0.03457123342691237</v>
+        <v>0.03800119138863468</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H24">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I24">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J24">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N24">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O24">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P24">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q24">
-        <v>13.33904777180716</v>
+        <v>15.62031810876867</v>
       </c>
       <c r="R24">
-        <v>13.33904777180716</v>
+        <v>140.582862978918</v>
       </c>
       <c r="S24">
-        <v>0.004755339355647962</v>
+        <v>0.004548674974356223</v>
       </c>
       <c r="T24">
-        <v>0.004755339355647962</v>
+        <v>0.005706019934616178</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.1916422859751</v>
+        <v>12.521722</v>
       </c>
       <c r="H25">
-        <v>12.1916422859751</v>
+        <v>37.565166</v>
       </c>
       <c r="I25">
-        <v>0.09452911258462977</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J25">
-        <v>0.09452911258462977</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N25">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O25">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P25">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q25">
-        <v>11.41273036548246</v>
+        <v>11.721809355196</v>
       </c>
       <c r="R25">
-        <v>11.41273036548246</v>
+        <v>70.33085613117601</v>
       </c>
       <c r="S25">
-        <v>0.00406861170233478</v>
+        <v>0.003413419656173555</v>
       </c>
       <c r="T25">
-        <v>0.00406861170233478</v>
+        <v>0.002854610146638524</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H26">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I26">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J26">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N26">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O26">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P26">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q26">
-        <v>16.06256805240889</v>
+        <v>19.15979227026667</v>
       </c>
       <c r="R26">
-        <v>16.06256805240889</v>
+        <v>114.9587536216</v>
       </c>
       <c r="S26">
-        <v>0.005726267970479376</v>
+        <v>0.00557937853805308</v>
       </c>
       <c r="T26">
-        <v>0.005726267970479376</v>
+        <v>0.0046659808025239</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H27">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I27">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J27">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N27">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O27">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P27">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q27">
-        <v>8.184297415904512</v>
+        <v>10.63099939142222</v>
       </c>
       <c r="R27">
-        <v>8.184297415904512</v>
+        <v>95.6789945228</v>
       </c>
       <c r="S27">
-        <v>0.00291768290105658</v>
+        <v>0.003095773117258904</v>
       </c>
       <c r="T27">
-        <v>0.00291768290105658</v>
+        <v>0.003883448085368696</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H28">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I28">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J28">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N28">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O28">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P28">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q28">
-        <v>91.59202400911173</v>
+        <v>125.4081078590778</v>
       </c>
       <c r="R28">
-        <v>91.59202400911173</v>
+        <v>1128.6729707317</v>
       </c>
       <c r="S28">
-        <v>0.03265234249738157</v>
+        <v>0.03651914883088897</v>
       </c>
       <c r="T28">
-        <v>0.03265234249738157</v>
+        <v>0.04581092129005317</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H29">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I29">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J29">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N29">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O29">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P29">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q29">
-        <v>78.31773221543577</v>
+        <v>97.55960608203335</v>
       </c>
       <c r="R29">
-        <v>78.31773221543577</v>
+        <v>878.0364547383</v>
       </c>
       <c r="S29">
-        <v>0.02792008849659467</v>
+        <v>0.0284095967574618</v>
       </c>
       <c r="T29">
-        <v>0.02792008849659467</v>
+        <v>0.03563801026592961</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H30">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I30">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J30">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N30">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O30">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P30">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q30">
-        <v>10.77275403079023</v>
+        <v>14.64893696158889</v>
       </c>
       <c r="R30">
-        <v>10.77275403079023</v>
+        <v>131.8404326543</v>
       </c>
       <c r="S30">
-        <v>0.003840461634720695</v>
+        <v>0.004265806399979514</v>
       </c>
       <c r="T30">
-        <v>0.003840461634720695</v>
+        <v>0.005351179517710285</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.84609739952954</v>
+        <v>11.74303333333333</v>
       </c>
       <c r="H31">
-        <v>9.84609739952954</v>
+        <v>35.2291</v>
       </c>
       <c r="I31">
-        <v>0.07634269672348057</v>
+        <v>0.08107085287879548</v>
       </c>
       <c r="J31">
-        <v>0.07634269672348057</v>
+        <v>0.09802663038937569</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N31">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O31">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P31">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q31">
-        <v>9.217040012925638</v>
+        <v>10.99286487793333</v>
       </c>
       <c r="R31">
-        <v>9.217040012925638</v>
+        <v>65.9571892676</v>
       </c>
       <c r="S31">
-        <v>0.003285853223247675</v>
+        <v>0.003201149235153221</v>
       </c>
       <c r="T31">
-        <v>0.003285853223247675</v>
+        <v>0.002677090427790023</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H32">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I32">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J32">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N32">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O32">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P32">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q32">
-        <v>84.15478209109506</v>
+        <v>98.208023603634</v>
       </c>
       <c r="R32">
-        <v>84.15478209109506</v>
+        <v>392.832094414536</v>
       </c>
       <c r="S32">
-        <v>0.03000098313536109</v>
+        <v>0.02859841753133472</v>
       </c>
       <c r="T32">
-        <v>0.03000098313536109</v>
+        <v>0.01594438834285588</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H33">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I33">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J33">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N33">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O33">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P33">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q33">
-        <v>42.87905665874303</v>
+        <v>54.49168886779799</v>
       </c>
       <c r="R33">
-        <v>42.87905665874303</v>
+        <v>326.9501332067879</v>
       </c>
       <c r="S33">
-        <v>0.01528628348519324</v>
+        <v>0.01586811355168343</v>
       </c>
       <c r="T33">
-        <v>0.01528628348519324</v>
+        <v>0.0132703512944043</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H34">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I34">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J34">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N34">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O34">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P34">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q34">
-        <v>479.867652334285</v>
+        <v>642.8087655117346</v>
       </c>
       <c r="R34">
-        <v>479.867652334285</v>
+        <v>3856.852593070407</v>
       </c>
       <c r="S34">
-        <v>0.1710716965472315</v>
+        <v>0.1871874903327775</v>
       </c>
       <c r="T34">
-        <v>0.1710716965472315</v>
+        <v>0.1565431042917093</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H35">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I35">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J35">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N35">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O35">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P35">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q35">
-        <v>410.3211682561752</v>
+        <v>500.0647168672155</v>
       </c>
       <c r="R35">
-        <v>410.3211682561752</v>
+        <v>3000.388301203293</v>
       </c>
       <c r="S35">
-        <v>0.1462785375121038</v>
+        <v>0.1456200729929782</v>
       </c>
       <c r="T35">
-        <v>0.1462785375121038</v>
+        <v>0.1217806715234028</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H36">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I36">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J36">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N36">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O36">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P36">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q36">
-        <v>56.4404623858486</v>
+        <v>75.08657330927551</v>
       </c>
       <c r="R36">
-        <v>56.4404623858486</v>
+        <v>450.519439855653</v>
       </c>
       <c r="S36">
-        <v>0.02012089293222709</v>
+        <v>0.02186539445251982</v>
       </c>
       <c r="T36">
-        <v>0.02012089293222709</v>
+        <v>0.01828581983804079</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>51.5855359119143</v>
+        <v>60.1916805</v>
       </c>
       <c r="H37">
-        <v>51.5855359119143</v>
+        <v>120.383361</v>
       </c>
       <c r="I37">
-        <v>0.3999735899047333</v>
+        <v>0.4155477325003729</v>
       </c>
       <c r="J37">
-        <v>0.3999735899047333</v>
+        <v>0.3349723732305901</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N37">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O37">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P37">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q37">
-        <v>48.28978724210517</v>
+        <v>56.346515566299</v>
       </c>
       <c r="R37">
-        <v>48.28978724210517</v>
+        <v>225.386062265196</v>
       </c>
       <c r="S37">
-        <v>0.01721519629261654</v>
+        <v>0.01640824363907923</v>
       </c>
       <c r="T37">
-        <v>0.01721519629261654</v>
+        <v>0.009148037940177033</v>
       </c>
     </row>
   </sheetData>
